--- a/Documentation/Gantt Chart/Gantt_Chart.xlsx
+++ b/Documentation/Gantt Chart/Gantt_Chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Year 2\CSC2058 Software Engineering and System Development\Group Project\Gantt Chart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5718BBE9-254B-467A-BF68-DA724EEDF7DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE04C3E-AD35-458A-8764-052EC11E8092}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21615" yWindow="4980" windowWidth="28800" windowHeight="15435" xr2:uid="{DBC5EA1A-C363-4C3E-B6CC-E02BD0706D96}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="28800" windowHeight="15435" xr2:uid="{DBC5EA1A-C363-4C3E-B6CC-E02BD0706D96}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="8" r:id="rId1"/>
@@ -210,13 +210,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -791,10 +791,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>82</c:v>
@@ -1614,7 +1614,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9307500" cy="6090000"/>
+    <xdr:ext cx="9301370" cy="6071152"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -2502,7 +2502,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2541,19 +2541,19 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>44115</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>44125</v>
       </c>
       <c r="F2" s="2">
@@ -2567,15 +2567,15 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>44115</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>44125</v>
       </c>
       <c r="F3" s="2">
@@ -2589,15 +2589,15 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>44115</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>44125</v>
       </c>
       <c r="F4" s="2">
@@ -2611,15 +2611,15 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>44125</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>44132</v>
       </c>
       <c r="F5" s="2">
@@ -2633,15 +2633,15 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>44125</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>44132</v>
       </c>
       <c r="F6" s="2">
@@ -2657,15 +2657,15 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>44125</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>44132</v>
       </c>
       <c r="F7" s="2">
@@ -2679,17 +2679,17 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>44133</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>44147</v>
       </c>
       <c r="F8" s="2">
@@ -2703,15 +2703,15 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>44134</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>44148</v>
       </c>
       <c r="F9" s="2">
@@ -2727,15 +2727,15 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>44135</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>44149</v>
       </c>
       <c r="F10" s="2">
@@ -2749,15 +2749,15 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
       <c r="C11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>44136</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>44165</v>
       </c>
       <c r="F11" s="2">
@@ -2771,15 +2771,15 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
       <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>44162</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>44162</v>
       </c>
       <c r="F12" s="2" t="str">
@@ -2795,15 +2795,15 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>44165</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>44166</v>
       </c>
       <c r="F13" s="2">
@@ -2817,15 +2817,15 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
       <c r="C14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>44160</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>44162</v>
       </c>
       <c r="F14" s="2">
@@ -2839,19 +2839,19 @@
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>44207</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>44221</v>
       </c>
       <c r="F15" s="2">
@@ -2865,15 +2865,15 @@
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
       <c r="C16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>44208</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>44221</v>
       </c>
       <c r="F16" s="2">
@@ -2887,15 +2887,15 @@
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
       <c r="C17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>44221</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>44232</v>
       </c>
       <c r="F17" s="2">
@@ -2911,15 +2911,15 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
       <c r="C18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>44232</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>44239</v>
       </c>
       <c r="F18" s="2">
@@ -2933,15 +2933,15 @@
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
       <c r="C19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>44239</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>44244</v>
       </c>
       <c r="F19" s="2">
@@ -2955,15 +2955,15 @@
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
       <c r="C20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>44243</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>44250</v>
       </c>
       <c r="F20" s="2">
@@ -2977,15 +2977,15 @@
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
       <c r="C21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>44251</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>44256</v>
       </c>
       <c r="F21" s="2">
@@ -3001,15 +3001,15 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
       <c r="C22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>44257</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <v>44260</v>
       </c>
       <c r="F22" s="2">
@@ -3023,15 +3023,15 @@
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
       <c r="C23" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>44263</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>44267</v>
       </c>
       <c r="F23" s="2">
@@ -3047,15 +3047,15 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
       <c r="C24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>44270</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="3">
         <v>44275</v>
       </c>
       <c r="F24" s="2">
@@ -3069,17 +3069,17 @@
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3" t="s">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <v>44207</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="3">
         <v>44266</v>
       </c>
       <c r="F25" s="2">
@@ -3093,15 +3093,15 @@
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
       <c r="C26" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <v>44251</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="3">
         <v>44275</v>
       </c>
       <c r="F26" s="2">
@@ -3115,15 +3115,15 @@
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
       <c r="C27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <v>44209</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="3">
         <v>44209</v>
       </c>
       <c r="F27" s="2" t="str">
@@ -3137,15 +3137,15 @@
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
       <c r="C28" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <v>44265</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="3">
         <v>44284</v>
       </c>
       <c r="F28" s="2">
@@ -3159,15 +3159,15 @@
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
       <c r="C29" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <v>44266</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="3">
         <v>44285</v>
       </c>
       <c r="F29" s="2">
@@ -3181,15 +3181,15 @@
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
       <c r="C30" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="3">
         <v>44267</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="3">
         <v>44286</v>
       </c>
       <c r="F30" s="2">
@@ -3203,15 +3203,15 @@
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
       <c r="C31" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="3">
         <v>44287</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="3">
         <v>44289</v>
       </c>
       <c r="F31" s="2">
@@ -3225,19 +3225,19 @@
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
       <c r="C32" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="3">
         <v>44290</v>
       </c>
-      <c r="E32" s="4">
-        <v>44290</v>
-      </c>
-      <c r="F32" s="2" t="str">
-        <f t="shared" si="0"/>
+      <c r="E32" s="3">
+        <v>44291</v>
+      </c>
+      <c r="F32" s="2">
+        <f xml:space="preserve"> IF(E32-D32 &lt;1,"1",(E32 - D32))</f>
         <v>1</v>
       </c>
       <c r="H32" s="2">
@@ -3247,18 +3247,18 @@
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
       <c r="C33" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="3">
         <v>44290</v>
       </c>
-      <c r="E33" s="4">
-        <v>44290</v>
-      </c>
-      <c r="F33" s="2" t="str">
+      <c r="E33" s="3">
+        <v>44291</v>
+      </c>
+      <c r="F33" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -3269,15 +3269,15 @@
       <c r="I33" s="2"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
       <c r="C34" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="3">
         <v>44207</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="3">
         <v>44289</v>
       </c>
       <c r="F34" s="2">
@@ -3291,8 +3291,8 @@
       <c r="I34" s="2"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C37">

--- a/Documentation/Gantt Chart/Gantt_Chart.xlsx
+++ b/Documentation/Gantt Chart/Gantt_Chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Year 2\CSC2058 Software Engineering and System Development\Group Project\Gantt Chart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE04C3E-AD35-458A-8764-052EC11E8092}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E2E35A-5F84-48D4-B81F-F955B51A4F1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="28800" windowHeight="15435" xr2:uid="{DBC5EA1A-C363-4C3E-B6CC-E02BD0706D96}"/>
+    <workbookView xWindow="3855" yWindow="3855" windowWidth="28800" windowHeight="15435" xr2:uid="{DBC5EA1A-C363-4C3E-B6CC-E02BD0706D96}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="8" r:id="rId1"/>
@@ -487,7 +487,7 @@
                   <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44160</c:v>
+                  <c:v>44167</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>44207</c:v>
@@ -737,7 +737,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>14</c:v>
@@ -2502,7 +2502,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2823,14 +2823,14 @@
         <v>15</v>
       </c>
       <c r="D14" s="3">
-        <v>44160</v>
+        <v>44167</v>
       </c>
       <c r="E14" s="3">
-        <v>44162</v>
+        <v>44168</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" s="2">
         <f t="shared" si="1"/>

--- a/Documentation/Gantt Chart/Gantt_Chart.xlsx
+++ b/Documentation/Gantt Chart/Gantt_Chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Year 2\CSC2058 Software Engineering and System Development\Group Project\Gantt Chart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E2E35A-5F84-48D4-B81F-F955B51A4F1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CF3A30-0F5B-4214-B27B-A45004E28A96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="3855" windowWidth="28800" windowHeight="15435" xr2:uid="{DBC5EA1A-C363-4C3E-B6CC-E02BD0706D96}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{DBC5EA1A-C363-4C3E-B6CC-E02BD0706D96}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="8" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>Task</t>
   </si>
@@ -166,6 +166,12 @@
   </si>
   <si>
     <t>18&amp;19</t>
+  </si>
+  <si>
+    <t>Semester 2 Deliverables</t>
+  </si>
+  <si>
+    <t>Semester 1 Deliverables</t>
   </si>
 </sst>
 </file>
@@ -204,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -213,10 +219,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -339,9 +348,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$2:$C$34</c:f>
+              <c:f>Sheet1!$C$2:$C$36</c:f>
               <c:strCache>
-                <c:ptCount val="33"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>Identify Use Cases</c:v>
                 </c:pt>
@@ -382,74 +391,80 @@
                   <c:v>Team Minutes Combined</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>Semester 1 Deliverables</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Dice Roll Development</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>Players setting names</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>After Roll Events</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>Resourse System</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>Start Square Interactions</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>Action Square interactions</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>Player Transactions</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>Win Conditions checks</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>Final State of Play</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>Group Product Description</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>Text User Interface</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>Class Relationship model</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>Final Game Layout</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>Test Units</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>Black Box Testing</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>White Box Testing</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>Appendix Test Plan</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>Team Minutes Combined</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>Video Demo</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>Evidence of good Project Management</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Semester 2 Deliverables</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$34</c:f>
+              <c:f>Sheet1!$D$2:$D$35</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44115</c:v>
                 </c:pt>
@@ -490,63 +505,66 @@
                   <c:v>44167</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44168</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44207</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>44208</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>44221</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>44232</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>44239</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>44243</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>44251</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>44257</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>44263</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>44270</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>44207</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>44251</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>44209</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>44265</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>44266</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>44267</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>44287</c:v>
-                </c:pt>
                 <c:pt idx="30">
-                  <c:v>44290</c:v>
+                  <c:v>44279</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44290</c:v>
+                  <c:v>44279</c:v>
                 </c:pt>
                 <c:pt idx="32">
+                  <c:v>44279</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>44207</c:v>
                 </c:pt>
               </c:numCache>
@@ -589,9 +607,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$2:$C$34</c:f>
+              <c:f>Sheet1!$C$2:$C$36</c:f>
               <c:strCache>
-                <c:ptCount val="33"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>Identify Use Cases</c:v>
                 </c:pt>
@@ -632,74 +650,80 @@
                   <c:v>Team Minutes Combined</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>Semester 1 Deliverables</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Dice Roll Development</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>Players setting names</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>After Roll Events</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>Resourse System</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>Start Square Interactions</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>Action Square interactions</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>Player Transactions</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>Win Conditions checks</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>Final State of Play</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>Group Product Description</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>Text User Interface</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>Class Relationship model</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>Final Game Layout</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>Test Units</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>Black Box Testing</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>White Box Testing</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>Appendix Test Plan</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>Team Minutes Combined</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>Video Demo</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>Evidence of good Project Management</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Semester 2 Deliverables</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$34</c:f>
+              <c:f>Sheet1!$F$2:$F$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -740,64 +764,70 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>59</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="26">
-                  <c:v>19</c:v>
-                </c:pt>
                 <c:pt idx="27">
-                  <c:v>19</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>19</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>82</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -889,8 +919,8 @@
         <c:axId val="738223136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="44295"/>
-          <c:min val="44115"/>
+          <c:max val="44280"/>
+          <c:min val="44110"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
@@ -1603,7 +1633,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{04C7DD69-D57E-4EB5-8A20-88EBCE87B918}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1647,12 +1677,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.25458</cdr:x>
-      <cdr:y>0.21724</cdr:y>
+      <cdr:x>0.27684</cdr:x>
+      <cdr:y>0.21588</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.25807</cdr:x>
-      <cdr:y>0.25977</cdr:y>
+      <cdr:x>0.28033</cdr:x>
+      <cdr:y>0.25841</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
@@ -1667,8 +1697,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2369518" y="1323008"/>
-          <a:ext cx="32439" cy="258970"/>
+          <a:off x="2575008" y="1310615"/>
+          <a:ext cx="32462" cy="258206"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
           <a:avLst/>
@@ -1701,12 +1731,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.25641</cdr:x>
-      <cdr:y>0.16339</cdr:y>
+      <cdr:x>0.28045</cdr:x>
+      <cdr:y>0.16066</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.28832</cdr:x>
-      <cdr:y>0.31689</cdr:y>
+      <cdr:x>0.31236</cdr:x>
+      <cdr:y>0.31416</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
@@ -1721,8 +1751,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2386495" y="995018"/>
-          <a:ext cx="297070" cy="934830"/>
+          <a:off x="2608595" y="975401"/>
+          <a:ext cx="296807" cy="931921"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
           <a:avLst/>
@@ -1755,12 +1785,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.34439</cdr:x>
-      <cdr:y>0.31689</cdr:y>
+      <cdr:x>0.37289</cdr:x>
+      <cdr:y>0.31416</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.34888</cdr:x>
-      <cdr:y>0.34735</cdr:y>
+      <cdr:x>0.37738</cdr:x>
+      <cdr:y>0.34462</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
@@ -1775,8 +1805,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3205370" y="1929847"/>
-          <a:ext cx="41826" cy="185531"/>
+          <a:off x="3468342" y="1907322"/>
+          <a:ext cx="41763" cy="184928"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
           <a:avLst/>
@@ -1809,12 +1839,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.42014</cdr:x>
-      <cdr:y>0.39731</cdr:y>
+      <cdr:x>0.45487</cdr:x>
+      <cdr:y>0.38094</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.42181</cdr:x>
-      <cdr:y>0.43657</cdr:y>
+      <cdr:x>0.45654</cdr:x>
+      <cdr:y>0.4202</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
@@ -1829,8 +1859,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3910497" y="2419626"/>
-          <a:ext cx="15461" cy="239092"/>
+          <a:off x="4230900" y="2312738"/>
+          <a:ext cx="15533" cy="238354"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
           <a:avLst/>
@@ -1863,12 +1893,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.64962</cdr:x>
-      <cdr:y>0.48961</cdr:y>
+      <cdr:x>0.6986</cdr:x>
+      <cdr:y>0.49234</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.65229</cdr:x>
-      <cdr:y>0.54673</cdr:y>
+      <cdr:x>0.70127</cdr:x>
+      <cdr:y>0.54946</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
@@ -1883,8 +1913,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="6046304" y="2981739"/>
-          <a:ext cx="24848" cy="347870"/>
+          <a:off x="6497900" y="2989062"/>
+          <a:ext cx="24835" cy="346784"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
           <a:avLst/>
@@ -1917,12 +1947,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.74584</cdr:x>
-      <cdr:y>0.59044</cdr:y>
+      <cdr:x>0.77434</cdr:x>
+      <cdr:y>0.56725</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.77331</cdr:x>
-      <cdr:y>0.64738</cdr:y>
+      <cdr:x>0.79663</cdr:x>
+      <cdr:y>0.61566</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
@@ -1937,8 +1967,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="6941931" y="3595757"/>
-          <a:ext cx="255656" cy="346765"/>
+          <a:off x="7202377" y="3443847"/>
+          <a:ext cx="207416" cy="293894"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
           <a:avLst/>
@@ -1971,12 +2001,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.77076</cdr:x>
-      <cdr:y>0.61628</cdr:y>
+      <cdr:x>0.79569</cdr:x>
+      <cdr:y>0.58627</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.77776</cdr:x>
-      <cdr:y>0.64466</cdr:y>
+      <cdr:x>0.79805</cdr:x>
+      <cdr:y>0.60808</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
@@ -1991,8 +2021,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="7173844" y="3753126"/>
-          <a:ext cx="65156" cy="172831"/>
+          <a:off x="7401036" y="3559313"/>
+          <a:ext cx="21895" cy="132446"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
           <a:avLst/>
@@ -2025,12 +2055,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.80891</cdr:x>
-      <cdr:y>0.66778</cdr:y>
+      <cdr:x>0.84987</cdr:x>
+      <cdr:y>0.6364</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.82581</cdr:x>
-      <cdr:y>0.6977</cdr:y>
+      <cdr:x>0.85752</cdr:x>
+      <cdr:y>0.66712</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
@@ -2045,8 +2075,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="7528891" y="4066761"/>
-          <a:ext cx="157370" cy="182217"/>
+          <a:off x="7904971" y="3863694"/>
+          <a:ext cx="71181" cy="186502"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
           <a:avLst/>
@@ -2197,6 +2227,96 @@
         </a:p>
       </cdr:txBody>
     </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.46036</cdr:x>
+      <cdr:y>0.46063</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.47719</cdr:x>
+      <cdr:y>0.48641</cdr:y>
+    </cdr:to>
+    <cdr:pic>
+      <cdr:nvPicPr>
+        <cdr:cNvPr id="5" name="Picture 4">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7709F699-4F9E-4B42-B855-625CABD3AD6B}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cdr:cNvPicPr>
+      </cdr:nvPicPr>
+      <cdr:blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </cdr:blipFill>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4281943" y="2796539"/>
+          <a:ext cx="156541" cy="156541"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+    </cdr:pic>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.94405</cdr:x>
+      <cdr:y>0.95836</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.96088</cdr:x>
+      <cdr:y>0.98414</cdr:y>
+    </cdr:to>
+    <cdr:pic>
+      <cdr:nvPicPr>
+        <cdr:cNvPr id="16" name="Picture 15">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACD799FC-2F1C-4426-B4A2-F9EAC2AAB765}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cdr:cNvPicPr>
+      </cdr:nvPicPr>
+      <cdr:blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </cdr:blipFill>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="8780955" y="5818352"/>
+          <a:ext cx="156541" cy="156541"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+    </cdr:pic>
   </cdr:relSizeAnchor>
 </c:userShapes>
 </file>
@@ -2499,10 +2619,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD94B0B-8697-456F-A049-3D70C68E4F27}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2561,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="H2" s="2">
-        <f>C37+1</f>
+        <f>C38+1</f>
         <v>1</v>
       </c>
       <c r="I2" s="2"/>
@@ -2579,11 +2699,11 @@
         <v>44125</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F33" si="0" xml:space="preserve"> IF(E3-D3 &lt;1,"1",(E3 - D3))</f>
+        <f t="shared" ref="F3:F34" si="0" xml:space="preserve"> IF(E3-D3 &lt;1,"1",(E3 - D3))</f>
         <v>10</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3:H34" si="1">H2+1</f>
+        <f t="shared" ref="H3:H35" si="1">H2+1</f>
         <v>2</v>
       </c>
       <c r="I3" s="2"/>
@@ -2833,7 +2953,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="2">
-        <f t="shared" si="1"/>
+        <f>H13+1</f>
         <v>13</v>
       </c>
       <c r="I14" s="2"/>
@@ -2842,47 +2962,44 @@
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="3">
+        <v>44168</v>
+      </c>
+      <c r="E15" s="3">
+        <v>44169</v>
+      </c>
+      <c r="F15" s="4">
+        <f xml:space="preserve"> IF(E15-D15 &lt;1,"1",(E15 - D15))</f>
+        <v>1</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D16" s="3">
         <v>44207</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E16" s="3">
         <v>44221</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F16" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="H15" s="2">
-        <f t="shared" si="1"/>
+      <c r="H16" s="2">
+        <f>H14+1</f>
         <v>14</v>
-      </c>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="3">
-        <v>44208</v>
-      </c>
-      <c r="E16" s="3">
-        <v>44221</v>
-      </c>
-      <c r="F16" s="2">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="H16" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
       </c>
       <c r="I16" s="2"/>
     </row>
@@ -2890,21 +3007,21 @@
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" s="3">
+        <v>44208</v>
+      </c>
+      <c r="E17" s="3">
         <v>44221</v>
-      </c>
-      <c r="E17" s="3">
-        <v>44232</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H17" s="2">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I17" s="2">
         <v>14</v>
@@ -2914,21 +3031,21 @@
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18" s="3">
+        <v>44221</v>
+      </c>
+      <c r="E18" s="3">
         <v>44232</v>
-      </c>
-      <c r="E18" s="3">
-        <v>44239</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H18" s="2">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I18" s="2"/>
     </row>
@@ -2936,21 +3053,21 @@
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D19" s="3">
+        <v>44232</v>
+      </c>
+      <c r="E19" s="3">
         <v>44239</v>
-      </c>
-      <c r="E19" s="3">
-        <v>44244</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H19" s="2">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I19" s="2"/>
     </row>
@@ -2958,21 +3075,21 @@
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D20" s="3">
-        <v>44243</v>
+        <v>44239</v>
       </c>
       <c r="E20" s="3">
-        <v>44250</v>
+        <v>44244</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H20" s="2">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I20" s="2"/>
     </row>
@@ -2980,21 +3097,21 @@
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D21" s="3">
-        <v>44251</v>
+        <v>44243</v>
       </c>
       <c r="E21" s="3">
-        <v>44256</v>
+        <v>44250</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H21" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>43</v>
@@ -3004,21 +3121,21 @@
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" s="3">
-        <v>44257</v>
+        <v>44251</v>
       </c>
       <c r="E22" s="3">
-        <v>44260</v>
+        <v>44256</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H22" s="2">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I22" s="2"/>
     </row>
@@ -3026,21 +3143,21 @@
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D23" s="3">
-        <v>44263</v>
+        <v>44257</v>
       </c>
       <c r="E23" s="3">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H23" s="2">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I23" s="2">
         <v>21</v>
@@ -3050,252 +3167,285 @@
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D24" s="3">
-        <v>44270</v>
+        <v>44263</v>
       </c>
       <c r="E24" s="3">
-        <v>44275</v>
+        <v>44267</v>
       </c>
       <c r="F24" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H24" s="2">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
-      <c r="B25" s="5" t="s">
-        <v>30</v>
-      </c>
+      <c r="B25" s="5"/>
       <c r="C25" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D25" s="3">
-        <v>44207</v>
+        <v>44270</v>
       </c>
       <c r="E25" s="3">
-        <v>44266</v>
+        <v>44275</v>
       </c>
       <c r="F25" s="2">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="H25" s="2">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
+      <c r="B26" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="C26" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26" s="3">
-        <v>44251</v>
+        <v>44207</v>
       </c>
       <c r="E26" s="3">
-        <v>44275</v>
+        <v>44266</v>
       </c>
       <c r="F26" s="2">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="H26" s="2">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="3">
+        <v>44251</v>
+      </c>
+      <c r="E27" s="3">
+        <v>44275</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="H27" s="2">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D28" s="3">
         <v>44209</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E28" s="3">
         <v>44209</v>
       </c>
-      <c r="F27" s="2" t="str">
+      <c r="F28" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H28" s="2">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="2" t="s">
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D29" s="3">
         <v>44265</v>
       </c>
-      <c r="E28" s="3">
-        <v>44284</v>
-      </c>
-      <c r="F28" s="2">
+      <c r="E29" s="3">
+        <v>44280</v>
+      </c>
+      <c r="F29" s="2">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="H28" s="2">
+        <v>15</v>
+      </c>
+      <c r="H29" s="2">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="2" t="s">
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D30" s="3">
         <v>44266</v>
       </c>
-      <c r="E29" s="3">
-        <v>44285</v>
-      </c>
-      <c r="F29" s="2">
+      <c r="E30" s="3">
+        <v>44280</v>
+      </c>
+      <c r="F30" s="2">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="H29" s="2">
+        <v>14</v>
+      </c>
+      <c r="H30" s="2">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="2" t="s">
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D31" s="3">
         <v>44267</v>
       </c>
-      <c r="E30" s="3">
-        <v>44286</v>
-      </c>
-      <c r="F30" s="2">
+      <c r="E31" s="3">
+        <v>44280</v>
+      </c>
+      <c r="F31" s="2">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="H30" s="2">
+        <v>13</v>
+      </c>
+      <c r="H31" s="2">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="2" t="s">
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="3">
-        <v>44287</v>
-      </c>
-      <c r="E31" s="3">
-        <v>44289</v>
-      </c>
-      <c r="F31" s="2">
+      <c r="D32" s="3">
+        <v>44279</v>
+      </c>
+      <c r="E32" s="3">
+        <v>44279</v>
+      </c>
+      <c r="F32" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H31" s="2">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="2" t="s">
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="3">
-        <v>44290</v>
-      </c>
-      <c r="E32" s="3">
-        <v>44291</v>
-      </c>
-      <c r="F32" s="2">
-        <f xml:space="preserve"> IF(E32-D32 &lt;1,"1",(E32 - D32))</f>
+      <c r="D33" s="3">
+        <v>44279</v>
+      </c>
+      <c r="E33" s="3">
+        <v>44280</v>
+      </c>
+      <c r="F33" s="2">
+        <f xml:space="preserve"> IF(E33-D33 &lt;1,"1",(E33 - D33))</f>
         <v>1</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H33" s="2">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="2" t="s">
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="3">
-        <v>44290</v>
-      </c>
-      <c r="E33" s="3">
-        <v>44291</v>
-      </c>
-      <c r="F33" s="2">
+      <c r="D34" s="3">
+        <v>44279</v>
+      </c>
+      <c r="E34" s="3">
+        <v>44280</v>
+      </c>
+      <c r="F34" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H34" s="2">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="2" t="s">
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="6"/>
+      <c r="C35" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D35" s="3">
         <v>44207</v>
       </c>
-      <c r="E34" s="3">
-        <v>44289</v>
-      </c>
-      <c r="F34" s="2">
-        <f t="shared" ref="F34" si="2" xml:space="preserve"> IF(E34-D34 &lt;1,"1",(E34 - D34))</f>
-        <v>82</v>
-      </c>
-      <c r="H34" s="2">
+      <c r="E35" s="3">
+        <v>44279</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" ref="F35:F36" si="2" xml:space="preserve"> IF(E35-D35 &lt;1,"1",(E35 - D35))</f>
+        <v>72</v>
+      </c>
+      <c r="H35" s="2">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C37">
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="6"/>
+      <c r="C36" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="3">
+        <v>44280</v>
+      </c>
+      <c r="E36" s="3">
+        <v>44281</v>
+      </c>
+      <c r="F36" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C38">
         <v>0</v>
       </c>
     </row>
@@ -3303,10 +3453,10 @@
   <mergeCells count="6">
     <mergeCell ref="A2:A14"/>
     <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B25:B34"/>
-    <mergeCell ref="B8:B14"/>
     <mergeCell ref="A15:A34"/>
-    <mergeCell ref="B15:B24"/>
+    <mergeCell ref="B8:B15"/>
+    <mergeCell ref="B16:B25"/>
+    <mergeCell ref="B26:B36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
